--- a/Documentation/Black Box Testing.xlsx
+++ b/Documentation/Black Box Testing.xlsx
@@ -751,7 +751,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
